--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.106</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.916</v>
+        <v>17.398</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.188</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.325</v>
+        <v>19.487</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.207</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.084</v>
+        <v>14.077</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19.76581000858016</v>
+        <v>-18.88475848503155</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.01210347978522</v>
+        <v>8.5025507398953</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.86087824886064</v>
+        <v>14.97936746049548</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.0505938699084</v>
+        <v>-15.89049648154353</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.499997976248</v>
+        <v>-0.1891566397820625</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.42889575518677</v>
+        <v>6.79326732301141</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.33016890389207</v>
+        <v>-2.316204169645591</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.3442720074905</v>
+        <v>9.976667849616152</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.14732240530692</v>
+        <v>14.94936421663297</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.59658135513337</v>
+        <v>11.45837660587986</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.62120416408199</v>
+        <v>18.3121928697246</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.1776512359599</v>
+        <v>22.57625641909186</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.28418197061825</v>
+        <v>-12.94312400014634</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.55309021876113</v>
+        <v>6.580577005174364</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.72084586276041</v>
+        <v>14.50188353670528</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.80726358872116</v>
+        <v>-17.52442912704592</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.09038672896497</v>
+        <v>11.51954897267141</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.95194528254967</v>
+        <v>20.20834340927019</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.10157156340615</v>
+        <v>-18.33910292299734</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.58923144344336</v>
+        <v>-0.755845264241028</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.53137843636967</v>
+        <v>8.578763852614053</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.38217442688331</v>
+        <v>-3.940891215235798</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.43208940351496</v>
+        <v>9.882996416615635</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.76468854132614</v>
+        <v>-8.314860845177311</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.01099881420281</v>
+        <v>22.18166833357149</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.85978226294158</v>
+        <v>28.0212903247729</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.04946372841395</v>
+        <v>-2.343213243415068</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.49888524499643</v>
+        <v>16.64429407525515</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.42779205417377</v>
+        <v>22.89642468228802</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21.32904352808479</v>
+        <v>12.27530457288589</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.3431628726946</v>
+        <v>27.47144713865887</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.14622172701814</v>
+        <v>31.80741456089181</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.59546641995189</v>
+        <v>31.32439963496617</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.6201027630169</v>
+        <v>38.92452942318618</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.1765572486856</v>
+        <v>42.79355198008758</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.28306848417403</v>
+        <v>4.19221530025337</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.55199630047196</v>
+        <v>27.69908229768654</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.71976206689693</v>
+        <v>34.62146851428653</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.80614326381109</v>
+        <v>-4.437291476761676</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.08928330299474</v>
+        <v>27.79377943168453</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.95085059108612</v>
+        <v>35.88474276852895</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.10044245731316</v>
+        <v>-2.109260056112408</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.58811984931349</v>
+        <v>18.84491361437631</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.53027592879229</v>
+        <v>27.49169983046652</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.43098140963753</v>
+        <v>30.20057195796957</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>19.7660111892889</v>
+        <v>-11.50558315425726</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.0123074233748</v>
+        <v>19.71160764309385</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.86108357951739</v>
+        <v>25.71444803712609</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.05080726671085</v>
+        <v>-4.39347785214132</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.50021424232615</v>
+        <v>15.41861996552617</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.42911345974861</v>
+        <v>21.84796111193862</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.33038149471217</v>
+        <v>10.18816067549201</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.34448728604434</v>
+        <v>26.11780034525084</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.14753903319465</v>
+        <v>30.61486561704746</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.59679547479085</v>
+        <v>30.2526835388322</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.62142023787691</v>
+        <v>38.08190041165926</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.17786856137292</v>
+        <v>42.10781480827065</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.28439371314005</v>
+        <v>2.459592636403187</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.55330515962429</v>
+        <v>26.97066598234588</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.72106242031631</v>
+        <v>34.05459669332367</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.80746770098335</v>
+        <v>-7.316258541666638</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.09059361329838</v>
+        <v>25.64561619119492</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.95215356811783</v>
+        <v>33.91584008367414</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>22.10178792606935</v>
+        <v>-3.818687101875756</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.58945068514198</v>
+        <v>17.97141242817686</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.5315991309956</v>
+        <v>26.81305431059953</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.38238998485977</v>
+        <v>11.66241430922541</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.43230765828595</v>
+        <v>29.20621336626274</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>19.76733867915059</v>
+        <v>-12.80025597038952</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.01365131652248</v>
+        <v>16.66412922788265</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.86242851545119</v>
+        <v>23.67943128003591</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20.05215028369682</v>
+        <v>-6.36974628153251</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.50157412984096</v>
+        <v>11.57258988450845</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.43047446044037</v>
+        <v>19.13650236186063</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21.33172577797125</v>
+        <v>7.039031794150706</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.34584729666038</v>
+        <v>21.31027018631669</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.14890006981682</v>
+        <v>26.79885230965661</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.59816882511581</v>
+        <v>23.41887365674163</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.62280666662163</v>
+        <v>30.91314413767515</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.17925577130242</v>
+        <v>35.71770721861802</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>27.28575733833998</v>
+        <v>-2.612670626561972</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.55468785348043</v>
+        <v>19.60474559614507</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.72244639226653</v>
+        <v>28.14226077084892</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>21.80880625406294</v>
+        <v>-10.0576061907215</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.09194866774566</v>
+        <v>21.11139618553208</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.9535096791476</v>
+        <v>30.38656804863029</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22.10314219845742</v>
+        <v>-7.39085842394768</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.59082192914346</v>
+        <v>12.48751863543773</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.53297150304966</v>
+        <v>22.45579191249126</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.38374551685736</v>
+        <v>6.876588380131713</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.43367901217095</v>
+        <v>22.72526831098281</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.24745133650189</v>
+        <v>16.88569618270506</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.7300516495606</v>
+        <v>12.84717022300896</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.78642705728356</v>
+        <v>22.06391654279758</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.35429195202583</v>
+        <v>27.84879229691365</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.41100459819894</v>
+        <v>-11.13540348925056</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.72251649490092</v>
+        <v>11.74904843109632</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>38.9053568687013</v>
+        <v>21.72418166885495</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.97194440411335</v>
+        <v>-15.22490576221175</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.18938171557937</v>
+        <v>16.34079865911995</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.04073766223655</v>
+        <v>25.76459131492319</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.41461733729054</v>
+        <v>-16.32193085510687</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>35.83482708243105</v>
+        <v>4.136454307527849</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.76637024733685</v>
+        <v>14.32692960568489</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.65851814748399</v>
+        <v>1.20604165353561</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>36.6457175805196</v>
+        <v>17.59314716964582</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.4509442573177</v>
+        <v>25.33488389472351</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.00703827311118</v>
+        <v>24.79066410113481</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.01392512143131</v>
+        <v>34.44433847750501</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.57287313902231</v>
+        <v>41.37107860066125</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.67304129370584</v>
+        <v>-3.172148359536131</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>43.90800807213749</v>
+        <v>23.17825014599581</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>46.07919101651888</v>
+        <v>34.17548788954663</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.24635185173841</v>
+        <v>36.60401911725634</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.72893791908847</v>
+        <v>35.57150651641996</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.78532694520807</v>
+        <v>45.54087788200857</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>37.35319930585713</v>
+        <v>50.94324684974094</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.40989232258404</v>
+        <v>8.852999003178494</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.72142390031627</v>
+        <v>35.82936210180259</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.90427446016837</v>
+        <v>44.83687816428608</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.9708641273655</v>
+        <v>1.680910862299131</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.1883181736766</v>
+        <v>36.48437003623101</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.03968279020469</v>
+        <v>45.2479622408426</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.4135287516524</v>
+        <v>3.897039672057641</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.83375584086397</v>
+        <v>27.78142782662506</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.76530802472567</v>
+        <v>37.2166689174861</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.6574342277163</v>
+        <v>22.56684401580271</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.64464984107229</v>
+        <v>41.97982442568259</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.44988496295792</v>
+        <v>49.06279566950754</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.00596515189713</v>
+        <v>51.60848736095768</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.01286549596151</v>
+        <v>62.00693411837518</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.57182092173444</v>
+        <v>68.51936133129976</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.67196946950028</v>
+        <v>20.8606154417558</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.90695573823456</v>
+        <v>51.3608610891476</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.07814879399118</v>
+        <v>61.31955678760917</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>31.2476709541887</v>
+        <v>35.78650332402538</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.73026873356234</v>
+        <v>34.83252616828843</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.78664609998059</v>
+        <v>45.02234194232016</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>37.35451226002476</v>
+        <v>50.59468571092634</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.41121928923589</v>
+        <v>7.476161820708526</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.7227343952404</v>
+        <v>35.46713928189811</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>38.90557640193576</v>
+        <v>44.65397362094762</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.97215569482993</v>
+        <v>0.2040669997491626</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.18959575840425</v>
+        <v>35.74480191067494</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.04095308190891</v>
+        <v>44.67245187271331</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.41484074849811</v>
+        <v>3.632946861949994</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.835053352187</v>
+        <v>28.35982967127408</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.76659794494544</v>
+        <v>37.97338478929831</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.65874077016477</v>
+        <v>22.28044339073763</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.64594288065614</v>
+        <v>42.44278499924277</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.45117089708368</v>
+        <v>49.68805998443992</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>38.00726247043473</v>
+        <v>52.32515093099747</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.01415126094697</v>
+        <v>62.94316208379051</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>44.57310052014554</v>
+        <v>69.61671553703499</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.67326306729698</v>
+        <v>20.92912163580483</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>43.9082330322636</v>
+        <v>52.4494000303191</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>46.07941758124244</v>
+        <v>62.57085134660814</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.24904334766403</v>
+        <v>30.28980531375993</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.73165359845019</v>
+        <v>26.2280344439347</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.78804412588711</v>
+        <v>36.08946685804618</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.35591107655335</v>
+        <v>42.45451936780864</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.41259437824766</v>
+        <v>0.6786794404086471</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.7241286660285</v>
+        <v>26.32068182452644</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.9069719681352</v>
+        <v>36.96340301885836</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.97349188921145</v>
+        <v>-3.524867084663178</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.19094827334356</v>
+        <v>30.20059722023995</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.04230666184432</v>
+        <v>40.1942363272292</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.41619292818532</v>
+        <v>-1.043677714177516</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.83642231722894</v>
+        <v>21.74751957115978</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.76796804740429</v>
+        <v>32.55452909792807</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.66009413499393</v>
+        <v>16.41017009638077</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.64731189397908</v>
+        <v>34.85580462966809</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>38.45254095847566</v>
+        <v>43.14429844281032</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.00864496684915</v>
+        <v>42.62557653894936</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.01554678136162</v>
+        <v>52.92535454309545</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.57449683948872</v>
+        <v>60.43392735537326</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>36.67463586562131</v>
+        <v>13.01934014370619</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.90962480135566</v>
+        <v>42.16767457481737</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.08081065624053</v>
+        <v>53.81827845867139</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>11.84906058777895</v>
+        <v>-2.680502220474011</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.0199698576118</v>
+        <v>27.19471154827053</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.83843654663141</v>
+        <v>33.18363443296832</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>12.06292385602257</v>
+        <v>1.039792810742494</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18.43432802611507</v>
+        <v>19.74285027916626</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.33189961123913</v>
+        <v>26.217895237388</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>13.32849684149419</v>
+        <v>16.42967049343877</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.27004973151617</v>
+        <v>31.41439046592404</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.04382653757509</v>
+        <v>35.96406022736328</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.51828443156822</v>
+        <v>32.52583776485538</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.48144634924195</v>
+        <v>40.46555883599981</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.0126344619291</v>
+        <v>43.88972496164678</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.28548166185019</v>
+        <v>6.017446805850728</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.46654459287783</v>
+        <v>28.99846393541626</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.59904512420103</v>
+        <v>36.19192402534993</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.81601976185332</v>
+        <v>-4.558628758189787</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.02320863636398</v>
+        <v>26.91479990059856</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.85420545576952</v>
+        <v>34.97165572094941</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>14.03877474314726</v>
+        <v>-4.723285087273403</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.44786626519581</v>
+        <v>15.79885654549518</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.35842456100523</v>
+        <v>24.46542727623178</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15.30559504860877</v>
+        <v>11.46033863945589</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>21.2824259659601</v>
+        <v>27.92280433718517</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>11.84792687606528</v>
+        <v>6.771174633016429</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>18.01885273270153</v>
+        <v>39.71649861865794</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.83732794844884</v>
+        <v>45.05680888826569</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>12.06178127741981</v>
+        <v>13.39392548033294</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>18.43320263368397</v>
+        <v>35.34180853610482</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.33078309061683</v>
+        <v>41.07499320134191</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.32735900105919</v>
+        <v>29.81740454617913</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.26892792394991</v>
+        <v>47.66944388919711</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.04271303791685</v>
+        <v>51.57212780359048</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>20.517156995116</v>
+        <v>51.10246266267366</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.48033226714249</v>
+        <v>59.78503204240515</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.01152766129954</v>
+        <v>62.80520378961096</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.28435587214079</v>
+        <v>21.90187085655282</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.46543811822567</v>
+        <v>48.81811941820686</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.59794859532444</v>
+        <v>55.0001864856815</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>13.81488710058612</v>
+        <v>7.37106978849738</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>20.02209265765269</v>
+        <v>41.99080325805748</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>21.85309805776826</v>
+        <v>49.43581458716521</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>14.03763310758337</v>
+        <v>10.27165372081146</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>20.44674191594067</v>
+        <v>34.12149767581184</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.35730913900586</v>
+        <v>42.08582556068222</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>15.30445816264591</v>
+        <v>27.55413255387611</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.28130520666947</v>
+        <v>46.95551153619594</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.84924726071904</v>
+        <v>3.15914626568957</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>18.02015923234128</v>
+        <v>36.80292729028071</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.83862728516457</v>
+        <v>42.29838898948339</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>12.06312240368708</v>
+        <v>10.89862028347418</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>18.43452937900964</v>
+        <v>33.64600489815228</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.33210237912307</v>
+        <v>39.54760225106619</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.32869459759026</v>
+        <v>27.27477148699833</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.27025011557003</v>
+        <v>45.83818486520897</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>21.04402824868314</v>
+        <v>49.89408540125336</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>20.51848366961079</v>
+        <v>49.5574362811531</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.4816474942776</v>
+        <v>58.46293914053693</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.01283683741465</v>
+        <v>61.6334051145913</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.28567863544348</v>
+        <v>19.71423314828555</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.46674469280109</v>
+        <v>47.60583501996999</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.59924681493472</v>
+        <v>53.94010671748269</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>13.81620934789334</v>
+        <v>4.07430084067359</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.02340093337276</v>
+        <v>39.40239008985228</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.85439913061713</v>
+        <v>47.01826965294156</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.03897623797666</v>
+        <v>8.120322620778483</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>20.44807057500299</v>
+        <v>32.78071409027259</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.35863030012129</v>
+        <v>40.93075605211237</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.30579575321402</v>
+        <v>25.36388167586364</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.28262930757768</v>
+        <v>45.48633303006526</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>11.85054060009291</v>
+        <v>2.452791711450219</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>18.02146878594189</v>
+        <v>34.37105771785382</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.83993786872273</v>
+        <v>40.87464764771262</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>12.06443098798436</v>
+        <v>9.543196887808948</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>18.43585464002504</v>
+        <v>30.4504696955793</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.33342874056438</v>
+        <v>37.48127137086676</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>13.3300044111909</v>
+        <v>24.76476695489138</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.27157547598948</v>
+        <v>41.69587057023374</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>21.04535462364138</v>
+        <v>46.73858868869297</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>20.51982214418458</v>
+        <v>43.44149453537528</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.48299889955829</v>
+        <v>52.01338354078575</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.01418901785057</v>
+        <v>55.95358116447942</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.28700763333761</v>
+        <v>15.32491065005084</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.46809254178941</v>
+        <v>40.95796321720947</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.60059592610644</v>
+        <v>48.73847827474427</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>13.81751344354124</v>
+        <v>1.889088930543659</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>20.02472133997423</v>
+        <v>35.45189275926128</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.85572058038306</v>
+        <v>44.069767696566</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>14.04029576737014</v>
+        <v>5.136893640627303</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>20.44940688081542</v>
+        <v>27.91553417617601</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.35996772060182</v>
+        <v>37.18836902196347</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>15.30711650524006</v>
+        <v>21.18624486849539</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>21.28396569965038</v>
+        <v>39.63992576137864</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.06827103262623</v>
+        <v>34.36202347072661</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.57528060261083</v>
+        <v>30.5156857413706</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.56968588251613</v>
+        <v>40.7410147462199</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.11205180432984</v>
+        <v>45.60357836288868</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.33611899779768</v>
+        <v>4.496931794213285</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.55915778437515</v>
+        <v>30.73244587347445</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.7064430749343</v>
+        <v>39.80711421250756</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.10526881318879</v>
+        <v>-2.793643738364604</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.24711657147179</v>
+        <v>31.11434735164125</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.06816807353055</v>
+        <v>39.89547592221885</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>21.47518362991745</v>
+        <v>-3.227378068856066</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.81718640302159</v>
+        <v>20.07111060515062</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.71740147377056</v>
+        <v>29.57919705884414</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.70651525099183</v>
+        <v>15.99230753044538</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.62096307243369</v>
+        <v>34.93083360817369</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.39691754842814</v>
+        <v>42.09701647076733</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.9760872843468</v>
+        <v>41.62017260402067</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.92130307803703</v>
+        <v>52.26653476892776</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.45486925781756</v>
+        <v>58.26154230372781</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.72045400008131</v>
+        <v>11.7573474186138</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>35.86736195393016</v>
+        <v>41.34909707537739</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.00328038279065</v>
+        <v>51.42349001656376</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>23.06715863303997</v>
+        <v>52.78271263235094</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.57415427533293</v>
+        <v>51.90477498951434</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.56857299250153</v>
+        <v>62.87883626137797</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.11094624700049</v>
+        <v>67.34888814761251</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21.33499432330112</v>
+        <v>23.18924354311155</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.55805253604647</v>
+        <v>53.4663326308883</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.7053478350327</v>
+        <v>61.55816878337755</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.10417663540652</v>
+        <v>12.78251612723357</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.4740829513555</v>
+        <v>15.58098476653889</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.81610284632673</v>
+        <v>42.26097813719201</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.71632677725199</v>
+        <v>50.99998192478445</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.70541921456629</v>
+        <v>35.92743907714738</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.61988300988989</v>
+        <v>57.85312911986892</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.39584578206388</v>
+        <v>64.34830229472902</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.97500200127597</v>
+        <v>66.92148763973756</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.92023111215973</v>
+        <v>78.30914767854007</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.45380456705237</v>
+        <v>83.88051088092691</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.71937020621563</v>
+        <v>34.31590244828423</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>35.86629739943444</v>
+        <v>68.00597770883078</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>38.00222576260037</v>
+        <v>77.02706399734849</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.06847571475985</v>
+        <v>51.48218448271939</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.57548278612596</v>
+        <v>50.69577429695602</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.56988997764689</v>
+        <v>61.88442448838025</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.11225714343299</v>
+        <v>66.5174927001416</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>21.33631890092771</v>
+        <v>21.36048016931949</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.55936082477138</v>
+        <v>52.62319761108999</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.70664772221165</v>
+        <v>60.88468009883692</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.10546579917992</v>
+        <v>10.84079390994378</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.24731625052833</v>
+        <v>48.65954585720501</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.06836910596653</v>
+        <v>56.9228399666188</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.47539240018535</v>
+        <v>14.82697749050514</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.81739796994499</v>
+        <v>42.3242903367962</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.717614444855</v>
+        <v>51.23260426261945</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.70672324683312</v>
+        <v>35.14023387979131</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.62117368796853</v>
+        <v>57.79309106547446</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>30.39712948112897</v>
+        <v>64.44249241438089</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.97629680808085</v>
+        <v>67.12002742931439</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.92151449852882</v>
+        <v>78.72158623552491</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.45508189859603</v>
+        <v>84.44713533203995</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.72066121081153</v>
+        <v>33.88491214721171</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>35.86757228158476</v>
+        <v>68.56638202629512</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>38.00349228894559</v>
+        <v>77.74060263555577</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.06981313437339</v>
+        <v>46.61666340060845</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.57683246090727</v>
+        <v>42.78097892952083</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.57125266447415</v>
+        <v>53.64248925255234</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.11362061439894</v>
+        <v>59.05928602183067</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>21.33765904984449</v>
+        <v>15.21747614017298</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.56071993638714</v>
+        <v>44.16700469841933</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>30.70800811259265</v>
+        <v>53.87836781416664</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.10676779764838</v>
+        <v>7.756232928046671</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.24863437789912</v>
+        <v>43.78813236725601</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.06968828559535</v>
+        <v>53.11369340300679</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>21.47671009258576</v>
+        <v>10.83000223619801</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>27.8187322511948</v>
+        <v>36.42243858798022</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.71894985081926</v>
+        <v>46.51961165865355</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.70804209094173</v>
+        <v>29.97017766541874</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.6225079975192</v>
+        <v>50.93344493463719</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>30.3984648273251</v>
+        <v>58.62201537435732</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.97764437456559</v>
+        <v>58.20416414355338</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.92287493916218</v>
+        <v>69.48855385935742</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.45644313205246</v>
+        <v>76.03902581240506</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.72199932669417</v>
+        <v>26.72261646311878</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>35.86892914766904</v>
+        <v>59.0687561385141</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>38.00485044507035</v>
+        <v>69.76526297848656</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.32110810355483</v>
+        <v>2.039080338837616</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.57695646973732</v>
+        <v>32.06017059418641</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.41386686439146</v>
+        <v>37.80627343050836</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.58897007109084</v>
+        <v>4.814881646502895</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.04831489457825</v>
+        <v>23.63918668064138</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.96508365449795</v>
+        <v>29.84221840531163</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.86598244258151</v>
+        <v>20.5438946118996</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.88960118092879</v>
+        <v>35.61771965832911</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.68133465649205</v>
+        <v>39.91949372989842</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.13911005514468</v>
+        <v>35.78402458059665</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.16989186590543</v>
+        <v>43.60910472365839</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.71599158642814</v>
+        <v>46.87219991660406</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.8606068899025</v>
+        <v>8.755075330637855</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.14055821764554</v>
+        <v>32.08356547111909</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>32.29463189894972</v>
+        <v>38.8499124383486</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.27912023274372</v>
+        <v>0.2070893226291766</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.57155656958993</v>
+        <v>31.80593854627548</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.42109799385653</v>
+        <v>39.63328276089247</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.55549166552768</v>
+        <v>-0.9279829300788265</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.05284410087899</v>
+        <v>19.69273826076781</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.98270375947123</v>
+        <v>28.10202195764925</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>18.83380400698452</v>
+        <v>15.58554299811244</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.89300067351284</v>
+        <v>32.11714764980184</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.31997453052496</v>
+        <v>11.28636626258898</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.57583969581489</v>
+        <v>44.40202011920308</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.41275872315866</v>
+        <v>49.48763016704125</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.58782770231068</v>
+        <v>16.97582150152265</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.04718993275515</v>
+        <v>39.07153490732674</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>23.96396767475134</v>
+        <v>44.51917391941728</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16.86484484415374</v>
+        <v>33.73959390514219</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.88847982121858</v>
+        <v>51.70425123042556</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.6802217078703</v>
+        <v>55.34721745713131</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.13798304195285</v>
+        <v>54.17927135178529</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.16877838087952</v>
+        <v>62.75726056742961</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.7148854700117</v>
+        <v>65.61017280077944</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.85948145781174</v>
+        <v>24.43488422389347</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.13945234867666</v>
+        <v>51.73299787860344</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>32.29353609971012</v>
+        <v>57.47068056849663</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.27798761101022</v>
+        <v>11.95030442940212</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.57044084337595</v>
+        <v>46.72038072014507</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.41999095489443</v>
+        <v>53.9238204944006</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.55435013739638</v>
+        <v>13.89143390059804</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.05172008053954</v>
+        <v>37.86699038183255</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.98158877724486</v>
+        <v>45.56030413487712</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>18.83266726083352</v>
+        <v>31.50566964376238</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.89188026053567</v>
+        <v>51.00015688257686</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>15.32130024696055</v>
+        <v>7.466802185804998</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>21.57715134787845</v>
+        <v>41.28300795635393</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>23.41406312218219</v>
+        <v>46.52594251432897</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.58917427194687</v>
+        <v>14.2813597599353</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.04852193505028</v>
+        <v>37.17898953208248</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.96529212631109</v>
+        <v>42.7974804000106</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.86618583281458</v>
+        <v>30.99259101446087</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.88980723131836</v>
+        <v>49.67084056643768</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.68154204927973</v>
+        <v>53.46917800204324</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.13931497581289</v>
+        <v>52.43409753216476</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.17009871855005</v>
+        <v>61.23818380966796</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.71619968283661</v>
+        <v>64.24257641936732</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.86080950835601</v>
+        <v>22.04787295134692</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.14076400077413</v>
+        <v>50.32436193931541</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.29483929141963</v>
+        <v>56.21669617249415</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.27931530518728</v>
+        <v>8.437341381132477</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.57175438593145</v>
+        <v>43.91794025238531</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.42129720408175</v>
+        <v>51.29455616691926</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.55569882926287</v>
+        <v>11.53164051943993</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.05305411396499</v>
+        <v>36.32024519146128</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.98291521841853</v>
+        <v>44.20186637667584</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>18.83401036148756</v>
+        <v>29.10195411656994</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.89320969721289</v>
+        <v>49.31980434661344</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.3226143693178</v>
+        <v>6.853696100993783</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.57848192317844</v>
+        <v>38.92499984139059</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>23.41539471890106</v>
+        <v>45.1903780046539</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.590503905876</v>
+        <v>13.01533871001368</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.04986849177173</v>
+        <v>34.05172727273543</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.96663977456997</v>
+        <v>40.81573082353545</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.86751671667267</v>
+        <v>28.56690601488943</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.89115389186863</v>
+        <v>45.59405989564263</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.68288971601885</v>
+        <v>50.39343665862818</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.14067479417886</v>
+        <v>46.39238901307846</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.17147165169444</v>
+        <v>54.85619603364124</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.71757338306642</v>
+        <v>58.63945354561478</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.86215966038009</v>
+        <v>17.75446866765714</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.14213328073844</v>
+        <v>43.74654901448952</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.29620982357049</v>
+        <v>51.10442476199162</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.2806402470719</v>
+        <v>6.300519551007124</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.573095878452</v>
+        <v>39.99589068991233</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.42263973122723</v>
+        <v>48.38931672602646</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>17.55703947316783</v>
+        <v>8.591474150971761</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.05441178135187</v>
+        <v>31.47656479168666</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.98427399159461</v>
+        <v>40.49784416639588</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>18.83535224870177</v>
+        <v>24.96206910477871</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.89456745527412</v>
+        <v>43.49182581583153</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.69689913771729</v>
+        <v>38.32067575940962</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.18748305782848</v>
+        <v>33.7128140393492</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>31.24978785365645</v>
+        <v>43.79477070305502</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.80715236542524</v>
+        <v>48.52584967529701</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.90272546029945</v>
+        <v>7.17288822099396</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.22500768878523</v>
+        <v>33.7323634303918</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.39398462786422</v>
+        <v>42.3958223574265</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.48848783686633</v>
+        <v>1.693471575799446</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.7143548901939</v>
+        <v>35.72126484556327</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>32.55380051052369</v>
+        <v>44.27334756190173</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.91112013585711</v>
+        <v>0.3082593771949611</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.34011288009311</v>
+        <v>23.69939913158655</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.25947082183978</v>
+        <v>32.94991262298502</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.15376449043079</v>
+        <v>19.85396220373142</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.14939481359001</v>
+        <v>38.85759073586077</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.94325116281919</v>
+        <v>45.78738077019177</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>33.50684955512398</v>
+        <v>44.59635129316383</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.51903976433218</v>
+        <v>55.09132257092797</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>40.06751797907978</v>
+        <v>60.97239524321604</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>32.20672649570379</v>
+        <v>14.242849175597</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.45143792660136</v>
+        <v>44.14568414896539</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.60887403673692</v>
+        <v>53.81073659565523</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.69578718817507</v>
+        <v>56.57966722942923</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.18635705252545</v>
+        <v>54.93988358926482</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.24867546009121</v>
+        <v>65.7805471111501</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.80604739219707</v>
+        <v>70.11294652673529</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.90160104291747</v>
+        <v>25.67923008895047</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.22390294641084</v>
+        <v>56.31539257119603</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.392890018536</v>
+        <v>63.97837310252677</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>24.48739554963714</v>
+        <v>17.09062010374613</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.71327933376675</v>
+        <v>54.3390484426665</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.5527335767648</v>
+        <v>62.20485427095754</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.91001941071641</v>
+        <v>18.94996723064737</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.33902949424205</v>
+        <v>45.74968588361141</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.25839640653307</v>
+        <v>54.21670688326606</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.15266843953749</v>
+        <v>39.6241883537931</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.14831493930068</v>
+        <v>61.63891474976523</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.94217968797129</v>
+        <v>67.88509192510288</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.50576444029035</v>
+        <v>69.74530038485761</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>38.51796813819538</v>
+        <v>80.99130490382325</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.06645371541414</v>
+        <v>86.44218730099705</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.20564280849793</v>
+        <v>36.62552194956656</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>39.45037372300081</v>
+        <v>70.66166089091679</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>41.60781989153971</v>
+        <v>79.25493372722715</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.697109517466</v>
+        <v>55.07025160791906</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.18769093969948</v>
+        <v>53.52192334653624</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>31.24999767209461</v>
+        <v>64.58047484750387</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>32.80736344133319</v>
+        <v>69.07707951492345</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.90293102399117</v>
+        <v>23.64236600918021</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.22521642807781</v>
+        <v>55.26730122597874</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.39419499279259</v>
+        <v>63.10254051970952</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.48869027322784</v>
+        <v>14.93586824612801</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.71456005162138</v>
+        <v>52.90152728005363</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>32.55400704124632</v>
+        <v>60.92533237761054</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.91133453512036</v>
+        <v>17.99078023115945</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.34033010942004</v>
+        <v>45.61037398907089</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.25968947174294</v>
+        <v>54.24920685364714</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.1539780967417</v>
+        <v>38.6268262779833</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.14961107087156</v>
+        <v>61.37105857149433</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.94346875267451</v>
+        <v>67.77366758909332</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.50706473845246</v>
+        <v>69.73834831370505</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>38.51925686862343</v>
+        <v>81.20155437447377</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>40.0677363169944</v>
+        <v>86.8077115829692</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>32.20693932896533</v>
+        <v>35.98979416032123</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>39.45165391404468</v>
+        <v>71.02055705066005</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>41.60909162127848</v>
+        <v>79.76946206430759</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.69846829472453</v>
+        <v>50.23786331761902</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.18906202577409</v>
+        <v>45.63338937238217</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.25138195508065</v>
+        <v>56.35817886485891</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.8087485003779</v>
+        <v>61.64790381480819</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.90429239425078</v>
+        <v>17.5482675858807</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.22659703897871</v>
+        <v>46.83335647023233</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.39557687247614</v>
+        <v>56.1386054898578</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.49001283227865</v>
+        <v>11.89643762694179</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.71589897670451</v>
+        <v>48.05534038734405</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.55534700965786</v>
+        <v>57.15683002774279</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.91267305602291</v>
+        <v>14.03267021525085</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.34168546360239</v>
+        <v>39.725665600159</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.26104594136277</v>
+        <v>49.57091935043842</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.15531778949466</v>
+        <v>33.49022246220751</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>32.15096645741364</v>
+        <v>54.52557049299953</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.94482516714206</v>
+        <v>61.98266323314003</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.50843342668389</v>
+        <v>60.8441184331211</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.52063861398349</v>
+        <v>71.98372182479707</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.0691188468663</v>
+        <v>78.42469016285524</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>32.20829837927446</v>
+        <v>28.87131582844078</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.45303198952195</v>
+        <v>61.54021113969455</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>41.61047097635767</v>
+        <v>71.83238168801266</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.3375246832694</v>
+        <v>-12.02264864888074</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.57993631931505</v>
+        <v>17.35397995481241</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.41263635392288</v>
+        <v>23.08168093185998</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.62344627561494</v>
+        <v>-9.657957376776476</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.06888635145057</v>
+        <v>8.422045488503549</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.98128187910208</v>
+        <v>14.61081179242167</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.89602559878943</v>
+        <v>5.709125834219892</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.90668459596946</v>
+        <v>20.12329023160983</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.6943615212212</v>
+        <v>24.41370491931333</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.15960587626658</v>
+        <v>20.62765492893019</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.1789743922796</v>
+        <v>28.03880317917985</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.72144013276512</v>
+        <v>31.25536034993621</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.87936353900636</v>
+        <v>-5.37135749092894</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.14362710408</v>
+        <v>17.17602741143081</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.29272619337162</v>
+        <v>23.99292849175736</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.28598553388982</v>
+        <v>-13.57752679713967</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.56492074881398</v>
+        <v>17.43111897652001</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.41020839594069</v>
+        <v>25.23740634407632</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.58030482809199</v>
+        <v>-15.18786797393398</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.06368601901601</v>
+        <v>4.750993712812527</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.98912775131741</v>
+        <v>13.14254328055183</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.85420663406792</v>
+        <v>1.00231103898842</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.90038108848611</v>
+        <v>16.92807192766738</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.3363964169669</v>
+        <v>-3.187274886912849</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.57882481666577</v>
+        <v>29.27866750822869</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.41153346770841</v>
+        <v>34.34576952315595</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.62230927967632</v>
+        <v>2.093199390735496</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.0677667254815</v>
+        <v>23.43792799053389</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.98017121835714</v>
+        <v>28.8716955188514</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.89489336180661</v>
+        <v>18.49113299244231</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.90556856328753</v>
+        <v>35.79027825819274</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.69325388391847</v>
+        <v>39.42216267929931</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.15848420719155</v>
+        <v>38.62755707595379</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.17786622124762</v>
+        <v>46.79152603415106</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.72033931671676</v>
+        <v>49.59520904968846</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.87824342968925</v>
+        <v>9.92469280579296</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>31.14252651614356</v>
+        <v>36.43544700581479</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.29163565611714</v>
+        <v>42.22439989820413</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.28485820762742</v>
+        <v>-2.17272300466281</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.56381028244247</v>
+        <v>32.00296993782754</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.40910660042806</v>
+        <v>39.1854165619165</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>18.57916866162125</v>
+        <v>-0.7042286297942546</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.06256732316937</v>
+        <v>22.58396431488417</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.98801807658912</v>
+        <v>30.26013744844169</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>19.8530752382576</v>
+        <v>16.58348509526731</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.89926599126294</v>
+        <v>35.46731512730521</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.33771650022787</v>
+        <v>-7.098778505748189</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.58013086538535</v>
+        <v>26.07018133186006</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.41283227744148</v>
+        <v>31.29540737261655</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.62365012596189</v>
+        <v>-0.689261532090427</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.06909303546141</v>
+        <v>21.46002349664763</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.98148999223147</v>
+        <v>27.0655788508748</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.8962286415445</v>
+        <v>15.65562704295265</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.90689029333976</v>
+        <v>33.67076047144161</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.69456855891796</v>
+        <v>37.45882125696254</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.15981044696694</v>
+        <v>36.7991039475897</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.17918089131586</v>
+        <v>45.19107431175841</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.72164787342198</v>
+        <v>48.14646879425398</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.87956581123527</v>
+        <v>7.452577867339251</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.14383253426588</v>
+        <v>34.94489343083416</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.29293323036758</v>
+        <v>40.88951533885967</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.28618027952338</v>
+        <v>-5.762668977999819</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.56511823272156</v>
+        <v>29.12611365095329</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.41040727149912</v>
+        <v>36.48272686985483</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.58051164101104</v>
+        <v>-3.136354213794409</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.06389567533271</v>
+        <v>20.96763725603066</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.98933885124044</v>
+        <v>28.83326275778677</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.85441264076245</v>
+        <v>14.10685170065533</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.90058975883504</v>
+        <v>33.7165404537058</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.33902998102765</v>
+        <v>-7.578273062021101</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.58146076336442</v>
+        <v>23.8504528716884</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.41416319075645</v>
+        <v>30.09857955978122</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.62497913778702</v>
+        <v>-1.822533556557179</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.07043893337272</v>
+        <v>18.47124639471043</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.98283697534502</v>
+        <v>25.22231825777616</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.8975588928066</v>
+        <v>13.36292883751915</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.90823628702119</v>
+        <v>29.73200571079077</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.69591555298139</v>
+        <v>34.52119695972804</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.16116959871655</v>
+        <v>30.87603055690665</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.18055312783107</v>
+        <v>38.92709347709318</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.72302087135533</v>
+        <v>42.66364689037313</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.88091531324968</v>
+        <v>3.271204515064477</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.14520112280883</v>
+        <v>28.48492967796088</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.29430306378258</v>
+        <v>35.89538955573676</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>18.28750453943037</v>
+        <v>-7.806719650777818</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.56645900734226</v>
+        <v>25.30100916901297</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.41174907457011</v>
+        <v>33.67501661920384</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>18.58185162165994</v>
+        <v>-5.984580207081333</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.06525264259362</v>
+        <v>16.2211148119563</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.99069691785994</v>
+        <v>25.22651384882249</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.85575385427813</v>
+        <v>10.05877860770058</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.90194680877117</v>
+        <v>27.98494878784161</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.70018151720334</v>
+        <v>23.11738397764395</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.19810230466733</v>
+        <v>18.78762478738563</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.2489266162806</v>
+        <v>28.47340125708626</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.80261825734186</v>
+        <v>33.14474814498072</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.91162839047132</v>
+        <v>-6.772764399544375</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.21814892856148</v>
+        <v>19.06954438470131</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.38210069606167</v>
+        <v>27.78031882417971</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.44904317291379</v>
+        <v>-9.386063057268522</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.66157038648585</v>
+        <v>24.07388650599378</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.49669734505559</v>
+        <v>32.58770010449152</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.88877623897293</v>
+        <v>-11.20667948713981</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>32.30396539799465</v>
+        <v>11.52703586945</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.21883855954401</v>
+        <v>20.74163287892353</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.12714791499802</v>
+        <v>8.061104076449494</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.10991151125305</v>
+        <v>26.48055995604846</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.89960750631926</v>
+        <v>33.38010487001301</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.47013414003726</v>
+        <v>32.46514039148516</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.47094710674274</v>
+        <v>42.57364020973689</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.015705728131</v>
+        <v>48.38207535047836</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.16841998975593</v>
+        <v>3.046542654591816</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.39756153596421</v>
+        <v>32.25621553376668</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.54989705429141</v>
+        <v>41.95092430318063</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.69907486757351</v>
+        <v>41.03306932589351</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.1969816318758</v>
+        <v>39.69432300233163</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.24781952494641</v>
+        <v>50.13929678436646</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.8015185725995</v>
+        <v>54.40887634984887</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.91050928426667</v>
+        <v>11.42403785881273</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.21704945542115</v>
+        <v>41.33814923149627</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.38101133676106</v>
+        <v>49.04936333618249</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.44795598979464</v>
+        <v>5.737121792948443</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.66049989903327</v>
+        <v>42.4138828832068</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.49563546364649</v>
+        <v>50.24143469828428</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.88768068142866</v>
+        <v>7.164742020416687</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.30288714309389</v>
+        <v>33.30191143736675</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.21776925795514</v>
+        <v>41.73356449522969</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.12605702064512</v>
+        <v>27.55853880803803</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.10883675939904</v>
+        <v>48.98462099050536</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.89854113784285</v>
+        <v>55.20097685473789</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.46905416307151</v>
+        <v>57.35960919456377</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.46988058852097</v>
+        <v>68.21989889339677</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.01464655842457</v>
+        <v>73.59500512976574</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>33.16734141996932</v>
+        <v>25.18496145820098</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>40.3965024084372</v>
+        <v>58.5234358620508</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.54884796569459</v>
+        <v>67.14726742228522</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.70039154149944</v>
+        <v>39.4542259156899</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.19830983631398</v>
+        <v>38.20892655561332</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>32.24913608087323</v>
+        <v>48.87381064853508</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.80282897723111</v>
+        <v>53.3079090802284</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.91183360769478</v>
+        <v>9.317872032251675</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.21835731466535</v>
+        <v>40.22411091246173</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.38231070523442</v>
+        <v>48.10882665566878</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.44924526537664</v>
+        <v>3.510828525752444</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.66177519853642</v>
+        <v>40.90755082488118</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.49690352407632</v>
+        <v>48.89402668854146</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.88899027050567</v>
+        <v>6.138802855047274</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.30418225379159</v>
+        <v>33.09877699222845</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.21905683356705</v>
+        <v>41.70331432927422</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.12736115648372</v>
+        <v>26.49382037099076</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.11012739831052</v>
+        <v>48.65206311296552</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.89982472375832</v>
+        <v>55.02578096324024</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.47034895606507</v>
+        <v>57.29073565880149</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.47116384021594</v>
+        <v>68.37034170392718</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>41.01592369296204</v>
+        <v>73.90098786732781</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.16863245954912</v>
+        <v>24.48535613711272</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>40.39777715339235</v>
+        <v>58.82202083719221</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>42.5501142661453</v>
+        <v>67.60263439533087</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.70174960473831</v>
+        <v>34.71841825729132</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.19968021391211</v>
+        <v>30.39772342799532</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.25051962518159</v>
+        <v>40.72794264496483</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.80421329184323</v>
+        <v>45.95787517638445</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.91319428618921</v>
+        <v>3.294552302469024</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.21973719220806</v>
+        <v>31.86611209022244</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.38369184413592</v>
+        <v>41.22127803823801</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.45056709376163</v>
+        <v>0.5310634740508782</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.6631133573794</v>
+        <v>36.12529107137718</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.49824271993987</v>
+        <v>45.18975996799131</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.89032807768992</v>
+        <v>2.239027582024518</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.30553685773948</v>
+        <v>27.27773796616614</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.22041254638344</v>
+        <v>37.08850153561315</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.12870012553573</v>
+        <v>21.41511740376669</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.11148202705462</v>
+        <v>41.86914627090109</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.90118037440475</v>
+        <v>49.29726444788599</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>34.47171688493503</v>
+        <v>48.44018713086781</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.47254479621566</v>
+        <v>59.19521606575326</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>41.01730542766416</v>
+        <v>65.56320198644846</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>33.16999076693398</v>
+        <v>17.40407513936213</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>40.39915444475582</v>
+        <v>49.38419474840997</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.55149282952866</v>
+        <v>59.70814510295828</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.28800595256127</v>
+        <v>-3.772269749748656</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.53599998123836</v>
+        <v>25.92409368219036</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.38084031571171</v>
+        <v>32.63321635584856</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.6214318877682</v>
+        <v>-0.2974444377195091</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.07264916799496</v>
+        <v>17.85472359226626</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.9974447594089</v>
+        <v>25.11779584721936</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.89685079364913</v>
+        <v>14.74521647933934</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.91264763389801</v>
+        <v>29.1946079703263</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.7118690867158</v>
+        <v>34.40551864240557</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.16775944516322</v>
+        <v>31.04199603207556</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.19342784774859</v>
+        <v>38.8835467989892</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.74642086276851</v>
+        <v>43.18908370039533</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.83920190896483</v>
+        <v>4.681964133867027</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.1101893859518</v>
+        <v>26.97950185399172</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.27330568844525</v>
+        <v>35.19349896955141</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.32553846994367</v>
+        <v>-3.707577998185538</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.61031025468191</v>
+        <v>27.67868220229013</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.46787311771035</v>
+        <v>36.58757656774402</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.66849052851098</v>
+        <v>-4.116571126801464</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.15790981517755</v>
+        <v>15.95681035997887</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.09589074818758</v>
+        <v>25.55583398083645</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.94495234877374</v>
+        <v>11.75207068880624</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.99651079310244</v>
+        <v>27.76603840678501</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.28689264657279</v>
+        <v>7.503384271606572</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.53490347589197</v>
+        <v>40.34698054203348</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.3797524782091</v>
+        <v>46.4104569759493</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.62031006587828</v>
+        <v>13.98621555915042</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.0715447554102</v>
+        <v>35.46550112881697</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.99634936470061</v>
+        <v>41.98902397410885</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.89573372486064</v>
+        <v>30.09603925754208</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.91154680524727</v>
+        <v>47.48493657413326</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.71077670303535</v>
+        <v>52.05105071151917</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.16665285730429</v>
+        <v>51.72333703361859</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>36.19233479407338</v>
+        <v>60.3211617684114</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.7453352116765</v>
+        <v>64.22430328622298</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.83809672415207</v>
+        <v>22.5997091525719</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.1091037682944</v>
+        <v>48.9287471300411</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>39.27223017935693</v>
+        <v>56.13208360065322</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.32442631132424</v>
+        <v>10.12333936589446</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.60921499380125</v>
+        <v>44.73553937630896</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.46678657935559</v>
+        <v>53.03770474858436</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.66736974736741</v>
+        <v>12.88935975010204</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.15680654487902</v>
+        <v>36.37552528533313</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.09479655191198</v>
+        <v>45.27693924079621</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.94383633100013</v>
+        <v>29.89267192965485</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.99541111058463</v>
+        <v>48.92015014151838</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.28820684393546</v>
+        <v>4.334622458826972</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.53620363152248</v>
+        <v>37.89978797359922</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.38104535081176</v>
+        <v>44.12568210009526</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.62164499002238</v>
+        <v>11.96806734022292</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.07286513538815</v>
+        <v>34.27318637412421</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.99766216293412</v>
+        <v>40.97299489941237</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.89706308768969</v>
+        <v>28.03824140143458</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.91286261181663</v>
+        <v>46.16177933214446</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.71208541175599</v>
+        <v>50.88819830565988</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.16797327638148</v>
+        <v>50.68562968827348</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.19364363040413</v>
+        <v>59.51205256708181</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.74663789478412</v>
+        <v>63.5715913875983</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.8394133678053</v>
+        <v>20.89853343481022</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.11040403847485</v>
+        <v>48.23390179233903</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.27352195506022</v>
+        <v>55.59752734382472</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.32574229292882</v>
+        <v>7.27956963600383</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.61051684576422</v>
+        <v>42.62354070569981</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.46808110774028</v>
+        <v>51.10417758912962</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.6687065967124</v>
+        <v>11.2257398440875</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.1581287582735</v>
+        <v>35.54913494727856</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.09611114182233</v>
+        <v>44.64449662977609</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.94516761004996</v>
+        <v>28.19804193597668</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.99672874731342</v>
+        <v>47.97016499126114</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.28953905025089</v>
+        <v>2.633184864276</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.53755225003854</v>
+        <v>34.42951898016096</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.3823950027357</v>
+        <v>41.67829378715523</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.62299281180178</v>
+        <v>9.576780000354042</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.07422983705851</v>
+        <v>29.99494708104657</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.99902796803591</v>
+        <v>37.84086647341311</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.898412167171</v>
+        <v>24.45997676466436</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.9142274274118</v>
+        <v>40.90990506879352</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>31.71345124425518</v>
+        <v>46.6378706970337</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.1693514020423</v>
+        <v>43.39338406190792</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.19503483915466</v>
+        <v>51.88242946084864</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.74802987737564</v>
+        <v>56.72872916318806</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.84078173118378</v>
+        <v>15.38084344830958</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.11179148118714</v>
+        <v>40.4020364536218</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.2749106647227</v>
+        <v>49.23342050015816</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.32708553366039</v>
+        <v>4.095175398426806</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.61187659666913</v>
+        <v>37.62971337825306</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>32.46944190569195</v>
+        <v>47.12613737185569</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>24.67006564471244</v>
+        <v>7.200411988566552</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.15950478713808</v>
+        <v>29.59432299260003</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.09748828882918</v>
+        <v>39.82834546859392</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.94652790912321</v>
+        <v>22.94459287180263</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.99810487692634</v>
+        <v>41.00587845529709</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.8079843170439</v>
+        <v>34.99287102093738</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>33.29723028557427</v>
+        <v>31.12252664024729</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>38.35460571724198</v>
+        <v>41.3517413357655</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.91896373988104</v>
+        <v>47.17894597958026</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>31.9620490126087</v>
+        <v>5.195476578609485</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>39.27558027327223</v>
+        <v>30.90627708159507</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>41.45370868810313</v>
+        <v>41.15203227258631</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.38848692551349</v>
+        <v>-2.979808773911575</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.60742199454447</v>
+        <v>30.91531732540849</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.45478825031338</v>
+        <v>40.55936611555533</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.87844668121485</v>
+        <v>-3.677075921367095</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.30025890543737</v>
+        <v>19.25668846209566</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.22764287871938</v>
+        <v>29.71168815111617</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.11825875984518</v>
+        <v>15.30271701940943</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.10695563870249</v>
+        <v>33.86745189532678</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.908300158301</v>
+        <v>41.83334894727628</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>40.47071098297955</v>
+        <v>41.47105882056992</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>45.47848337727986</v>
+        <v>52.13085093096221</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>47.03392701639684</v>
+        <v>59.10670051085323</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>39.12121419091579</v>
+        <v>11.56783657219175</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.35802286432551</v>
+        <v>40.73421413891877</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>48.52450218535901</v>
+        <v>52.00279104006152</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.80689313194716</v>
+        <v>55.53920369410861</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.29612490774828</v>
+        <v>54.70253225487703</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.35351395774523</v>
+        <v>65.69441613828606</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.91787943493136</v>
+        <v>71.13148314299252</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.96094504397022</v>
+        <v>26.00658231907315</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>39.27449598446072</v>
+        <v>55.8587460741411</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>41.45263457129841</v>
+        <v>65.12450619373426</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.38741456090074</v>
+        <v>14.63996414396474</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>37.60636636306663</v>
+        <v>51.81180445833731</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.45374127676216</v>
+        <v>60.78614666998277</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.87736616286882</v>
+        <v>17.28851259317533</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.29919572950861</v>
+        <v>43.69027201034291</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.2265887092603</v>
+        <v>53.37957375111957</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.1171828950515</v>
+        <v>37.43279284065726</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>39.10589595269002</v>
+        <v>59.06056176882291</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>40.90724890572243</v>
+        <v>66.35857168385286</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.46964595554183</v>
+        <v>69.11401404825239</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.4774318451611</v>
+        <v>80.52850409428297</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>47.03288288109835</v>
+        <v>87.08233886575204</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>39.12015041649364</v>
+        <v>36.39316995859832</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>46.35697857839578</v>
+        <v>69.75903496374946</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>48.52346799681462</v>
+        <v>79.97601555487979</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.80820363192391</v>
+        <v>54.76528198919371</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>33.29744708124848</v>
+        <v>54.01096126041989</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.35482446891361</v>
+        <v>65.22276118350689</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>39.919183754565</v>
+        <v>70.82932052303074</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.96226342008339</v>
+        <v>24.67484878928602</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>39.27579788538494</v>
+        <v>55.54384262241588</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>41.45392793046885</v>
+        <v>64.98766316851409</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.38869790754614</v>
+        <v>13.20297884314111</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.60763572471178</v>
+        <v>51.11320360913575</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.45500335501811</v>
+        <v>60.25064378129741</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.87866977849913</v>
+        <v>17.07511926248487</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.3004848571271</v>
+        <v>44.32083250838961</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.22787025585018</v>
+        <v>54.18735193547546</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.11848106642407</v>
+        <v>37.19445972888992</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.10718061887645</v>
+        <v>59.57292640446543</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>40.90852647583567</v>
+        <v>67.03229552647217</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>40.47093487229724</v>
+        <v>69.88307414305626</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>45.47870920610228</v>
+        <v>81.51662457011557</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>47.03415408452393</v>
+        <v>88.23103539380718</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>39.12143566140141</v>
+        <v>36.51176127034955</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>46.35824751667715</v>
+        <v>70.90005038756418</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>48.5247284396419</v>
+        <v>81.27832807320124</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.80958079187193</v>
+        <v>48.79569369204626</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.29883669187348</v>
+        <v>44.90921621419399</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>38.35622724511822</v>
+        <v>55.79024208588098</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.92058731392544</v>
+        <v>62.19791058456296</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.96364321780168</v>
+        <v>17.39378955065488</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.27719687543576</v>
+        <v>45.8926582005342</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.4553282045985</v>
+        <v>56.80706987318753</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>31.39003850323154</v>
+        <v>9.05759408305852</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.60899264948027</v>
+        <v>45.13595783930096</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>39.45636133523925</v>
+        <v>55.35065807227572</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.8800264438665</v>
+        <v>11.97179752598087</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.30185831681544</v>
+        <v>37.26402293273507</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>40.22924484303475</v>
+        <v>48.3365129999352</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.11983890840697</v>
+        <v>30.88373932045085</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.10855411773912</v>
+        <v>51.52974445810891</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.9099010135029</v>
+        <v>60.04321173558698</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>40.4723218235426</v>
+        <v>59.71406880715327</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.48010918566386</v>
+        <v>71.02710830494752</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.03555485555853</v>
+        <v>78.5850021995512</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>39.1228128792382</v>
+        <v>28.14570163913889</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>46.35964371551678</v>
+        <v>60.14084709083912</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>48.52612593304099</v>
+        <v>72.06346094035783</v>
       </c>
     </row>
   </sheetData>
